--- a/data/trans_dic/P57B_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P57B_R-Provincia-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,12; 7,19</t>
+          <t>2,19; 7,07</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,58; 8,74</t>
+          <t>4,62; 8,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,0; 7,14</t>
+          <t>3,93; 7,14</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,32; 6,35</t>
+          <t>2,25; 6,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,19; 8,89</t>
+          <t>5,06; 8,72</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,13; 6,76</t>
+          <t>4,17; 6,88</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,13; 14,34</t>
+          <t>8,17; 15,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,46; 18,48</t>
+          <t>12,29; 18,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,13; 15,49</t>
+          <t>11,38; 15,56</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,6; 11,48</t>
+          <t>4,5; 11,44</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,03; 15,33</t>
+          <t>9,2; 15,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,0; 12,72</t>
+          <t>8,07; 12,72</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>18,66; 29,05</t>
+          <t>18,83; 28,35</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>27,21; 35,65</t>
+          <t>27,35; 35,89</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>24,52; 31,11</t>
+          <t>24,16; 31,01</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>11,09; 17,77</t>
+          <t>11,24; 17,82</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>16,1; 23,33</t>
+          <t>16,16; 23,44</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>14,56; 19,38</t>
+          <t>14,72; 19,63</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,47; 10,21</t>
+          <t>5,49; 10,21</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,79; 11,96</t>
+          <t>5,85; 11,99</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,35; 10,05</t>
+          <t>6,25; 10,03</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>12,21; 18,18</t>
+          <t>12,28; 18,13</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>19,18; 24,09</t>
+          <t>19,36; 24,31</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>16,41; 20,62</t>
+          <t>16,36; 20,69</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>9,43; 11,64</t>
+          <t>9,45; 11,76</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>13,02; 15,67</t>
+          <t>13,05; 15,61</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>11,84; 13,46</t>
+          <t>11,77; 13,49</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P57B_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P57B_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,19; 7,07</t>
+          <t>2,12; 7,19</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,62; 8,65</t>
+          <t>4,58; 8,74</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,93; 7,14</t>
+          <t>4,0; 7,14</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,25; 6,33</t>
+          <t>2,32; 6,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,06; 8,72</t>
+          <t>5,19; 8,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,17; 6,88</t>
+          <t>4,13; 6,76</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,17; 15,06</t>
+          <t>8,13; 14,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,29; 18,27</t>
+          <t>12,46; 18,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,38; 15,56</t>
+          <t>11,13; 15,49</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,5; 11,44</t>
+          <t>4,6; 11,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,2; 15,49</t>
+          <t>9,03; 15,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,07; 12,72</t>
+          <t>8,0; 12,72</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>18,83; 28,35</t>
+          <t>18,66; 29,05</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>27,35; 35,89</t>
+          <t>27,21; 35,65</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>24,16; 31,01</t>
+          <t>24,52; 31,11</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>11,24; 17,82</t>
+          <t>11,09; 17,77</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>16,16; 23,44</t>
+          <t>16,1; 23,33</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>14,72; 19,63</t>
+          <t>14,56; 19,38</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,49; 10,21</t>
+          <t>5,47; 10,21</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,85; 11,99</t>
+          <t>5,79; 11,96</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,25; 10,03</t>
+          <t>6,35; 10,05</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>12,28; 18,13</t>
+          <t>12,21; 18,18</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>19,36; 24,31</t>
+          <t>19,18; 24,09</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>16,36; 20,69</t>
+          <t>16,41; 20,62</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>9,45; 11,76</t>
+          <t>9,43; 11,64</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>13,05; 15,61</t>
+          <t>13,02; 15,67</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>11,77; 13,49</t>
+          <t>11,84; 13,46</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P57B_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P57B_R-Provincia-trans_dic.xlsx
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,17%</t>
+          <t>3,99%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,39%</t>
+          <t>6,17%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,31%</t>
+          <t>5,04%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,12; 7,19</t>
+          <t>1,97; 7,01</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,58; 8,74</t>
+          <t>4,4; 8,45</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,0; 7,14</t>
+          <t>3,74; 6,91</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,77%</t>
+          <t>3,74%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,79%</t>
+          <t>6,76%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,33%</t>
+          <t>5,24%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,32; 6,35</t>
+          <t>2,25; 6,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,19; 8,89</t>
+          <t>5,15; 8,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,13; 6,76</t>
+          <t>4,02; 6,73</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>11,04%</t>
+          <t>10,84%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>15,42%</t>
+          <t>15,28%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>13,37%</t>
+          <t>13,14%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,13; 14,34</t>
+          <t>7,94; 14,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,46; 18,48</t>
+          <t>12,33; 18,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,13; 15,49</t>
+          <t>10,98; 15,27</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,59%</t>
+          <t>7,49%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>11,99%</t>
+          <t>9,87%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>10,09%</t>
+          <t>8,93%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,6; 11,48</t>
+          <t>4,48; 11,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,03; 15,33</t>
+          <t>5,82; 13,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,0; 12,72</t>
+          <t>6,3; 11,46</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>23,46%</t>
+          <t>23,65%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>31,48%</t>
+          <t>31,86%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>27,8%</t>
+          <t>28,08%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>18,66; 29,05</t>
+          <t>18,87; 29,19</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>27,21; 35,65</t>
+          <t>27,78; 35,98</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>24,52; 31,11</t>
+          <t>24,82; 31,31</t>
         </is>
       </c>
     </row>
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>14,33%</t>
+          <t>14,11%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>19,53%</t>
+          <t>19,58%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>16,93%</t>
+          <t>16,78%</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>11,09; 17,77</t>
+          <t>10,88; 17,54</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>16,1; 23,33</t>
+          <t>16,12; 23,33</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>14,56; 19,38</t>
+          <t>14,39; 19,2</t>
         </is>
       </c>
     </row>
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>7,38%</t>
+          <t>7,2%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>9,11%</t>
+          <t>7,9%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>8,35%</t>
+          <t>7,6%</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,47; 10,21</t>
+          <t>5,27; 10,03</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,79; 11,96</t>
+          <t>3,8; 11,44</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,35; 10,05</t>
+          <t>5,07; 9,5</t>
         </is>
       </c>
     </row>
@@ -906,17 +906,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>15,41%</t>
+          <t>12,11%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>21,69%</t>
+          <t>21,94%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>18,57%</t>
+          <t>16,4%</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>12,21; 18,18</t>
+          <t>5,5; 17,25</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>19,18; 24,09</t>
+          <t>19,41; 24,35</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>16,41; 20,62</t>
+          <t>10,21; 19,77</t>
         </is>
       </c>
     </row>
@@ -956,17 +956,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>10,52%</t>
+          <t>9,47%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>14,54%</t>
+          <t>13,53%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>12,64%</t>
+          <t>11,56%</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>9,43; 11,64</t>
+          <t>7,27; 10,65</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>13,02; 15,67</t>
+          <t>10,66; 14,86</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>11,84; 13,46</t>
+          <t>9,94; 12,62</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P57B_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P57B_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -546,7 +547,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -579,24 +580,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,97; 7,01</t>
+          <t>2,17; 7,14</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,4; 8,45</t>
+          <t>4,46; 8,21</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,74; 6,91</t>
+          <t>3,55; 6,89</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -629,24 +630,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,25; 6,46</t>
+          <t>2,18; 6,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,15; 8,84</t>
+          <t>5,06; 8,69</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,02; 6,73</t>
+          <t>4,02; 6,89</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,94; 14,06</t>
+          <t>8,09; 14,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,33; 18,31</t>
+          <t>12,61; 18,41</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,98; 15,27</t>
+          <t>11,16; 15,46</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,48; 11,39</t>
+          <t>4,43; 11,92</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,82; 13,4</t>
+          <t>5,4; 13,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,3; 11,46</t>
+          <t>6,05; 11,55</t>
         </is>
       </c>
     </row>
@@ -779,24 +780,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>18,87; 29,19</t>
+          <t>18,77; 29,31</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>27,78; 35,98</t>
+          <t>27,73; 36,18</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>24,82; 31,31</t>
+          <t>24,94; 31,36</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -829,24 +830,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>10,88; 17,54</t>
+          <t>11,09; 17,89</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>16,12; 23,33</t>
+          <t>16,33; 23,18</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>14,39; 19,2</t>
+          <t>14,47; 19,39</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,27; 10,03</t>
+          <t>5,35; 10,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,8; 11,44</t>
+          <t>3,85; 11,03</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,07; 9,5</t>
+          <t>4,55; 9,53</t>
         </is>
       </c>
     </row>
@@ -929,17 +930,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>5,5; 17,25</t>
+          <t>5,23; 17,3</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>19,41; 24,35</t>
+          <t>19,43; 24,62</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>10,21; 19,77</t>
+          <t>9,96; 19,88</t>
         </is>
       </c>
     </row>
@@ -979,17 +980,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>7,27; 10,65</t>
+          <t>7,44; 10,69</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>10,66; 14,86</t>
+          <t>11,05; 14,98</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>9,94; 12,62</t>
+          <t>9,85; 12,48</t>
         </is>
       </c>
     </row>
@@ -1015,4 +1016,758 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con bienestar emocional por debajo del percentil 15 (Bericat)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>12375</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>17883</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>30258</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>6734; 22130</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>12913; 23786</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>21274; 41352</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>19054</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>34249</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>53303</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>11126; 30665</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>25660; 44064</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>40930; 70091</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>33482</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>50964</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>84446</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>24984; 44121</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>42065; 61399</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>71734; 99308</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>22001</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>44205</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>66206</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>13011; 35000</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>24169; 60481</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>44844; 85615</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>41872</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>65984</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>107856</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>33235; 51891</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>57431; 74942</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>95810; 120478</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>37932</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>50331</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>88263</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>29814; 48092</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>41978; 59574</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>76122; 101963</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>44724</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>66634</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>111358</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>33237; 62097</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>32441; 93077</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>66666; 139609</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>401</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>112189</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>157232</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>269421</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>48473; 160329</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>139269; 176432</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>163590; 326743</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>425</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>909</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>1334</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>323628</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>487482</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>811110</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>254253; 365385</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>397967; 539590</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>691136; 875819</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>